--- a/input/nmr/dsn.3/data.input.xlsx
+++ b/input/nmr/dsn.3/data.input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\nmr\dsn.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\nmr\dsn.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497503D7-6F18-416E-9917-0090DE8C17CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78047C4-526F-4597-A928-6DAE7C31F93A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -59,22 +59,25 @@
     <t>signal</t>
   </si>
   <si>
-    <t>Ag</t>
-  </si>
-  <si>
     <t>Porf</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
     <t>Turn</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -397,17 +400,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -421,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +483,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,10 +499,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.2558367802832644E-3</v>
+        <v>1.8845056230349906E-3</v>
       </c>
       <c r="B4">
-        <v>3.7597279671387684E-3</v>
+        <v>3.7690112460699748E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,58 +515,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.4459695766747836E-3</v>
+        <v>5.5172875469578645E-3</v>
       </c>
       <c r="B6">
-        <v>3.7049746472289802E-3</v>
+        <v>3.6781916979719033E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.1619067065741047E-3</v>
+        <v>7.2688074031349642E-3</v>
       </c>
       <c r="B7">
-        <v>3.6870762189814971E-3</v>
+        <v>3.634403701567476E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.8709598256090094E-3</v>
+        <v>8.979115027402014E-3</v>
       </c>
       <c r="B8">
-        <v>3.6693498910056245E-3</v>
+        <v>3.5916460109607995E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.5732277473325752E-3</v>
+        <v>1.0649648055755877E-2</v>
       </c>
       <c r="B9">
-        <v>3.6517931929625357E-3</v>
+        <v>3.5498826852519531E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.2688074031349642E-3</v>
+        <v>1.2281778025986663E-2</v>
       </c>
       <c r="B10">
-        <v>3.634403701567476E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7.9577938868444394E-3</v>
-      </c>
-      <c r="B11">
-        <v>3.6171790394747389E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9.3163587842997435E-3</v>
-      </c>
-      <c r="B12">
-        <v>3.5832149170383566E-3</v>
+        <v>3.5090794359961836E-3</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +571,7 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -618,187 +605,157 @@
       <c r="K1">
         <v>8</v>
       </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>7.9130000000000003</v>
       </c>
       <c r="E2">
-        <v>7.9260000000000002</v>
+        <v>8.1839999999999993</v>
       </c>
       <c r="F2">
-        <v>7.931</v>
+        <v>8.4480000000000004</v>
       </c>
       <c r="G2">
-        <v>7.9329999999999998</v>
+        <v>8.56</v>
       </c>
       <c r="H2">
-        <v>7.9359999999999999</v>
+        <v>8.5939999999999994</v>
       </c>
       <c r="I2">
-        <v>8.0530000000000008</v>
+        <v>8.6059999999999999</v>
       </c>
       <c r="J2">
-        <v>8.1489999999999991</v>
+        <v>8.6150000000000002</v>
       </c>
       <c r="K2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="L2">
-        <v>8.2159999999999993</v>
-      </c>
-      <c r="M2">
-        <v>8.2159999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.6159999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7.1790000000000003</v>
+        <v>4.4889999999999999</v>
       </c>
       <c r="E3">
-        <v>7.1959999999999997</v>
+        <v>4.734</v>
       </c>
       <c r="F3">
-        <v>7.2030000000000003</v>
+        <v>4.8460000000000001</v>
       </c>
       <c r="G3">
-        <v>7.2069999999999999</v>
+        <v>4.8630000000000004</v>
       </c>
       <c r="H3">
-        <v>7.2130000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="I3">
-        <v>7.3840000000000003</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="J3">
-        <v>7.5179999999999998</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="K3">
-        <v>7.61</v>
-      </c>
-      <c r="L3">
-        <v>7.6139999999999999</v>
-      </c>
-      <c r="M3">
-        <v>7.6139999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.8650000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3.665</v>
       </c>
       <c r="E4">
-        <v>3.6680000000000001</v>
+        <v>3.7290000000000001</v>
       </c>
       <c r="F4">
-        <v>3.67</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="G4">
-        <v>3.6709999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="H4">
-        <v>3.673</v>
+        <v>3.78</v>
       </c>
       <c r="I4">
-        <v>3.7679999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J4">
-        <v>3.8460000000000001</v>
+        <v>3.7810000000000001</v>
       </c>
       <c r="K4">
-        <v>3.9</v>
-      </c>
-      <c r="L4">
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="M4">
-        <v>3.9039999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.665</v>
       </c>
       <c r="E5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.766</v>
       </c>
       <c r="F5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.82</v>
       </c>
       <c r="G5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8290000000000002</v>
       </c>
       <c r="H5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.831</v>
       </c>
       <c r="I5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="J5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="K5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.8319999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -823,19 +780,13 @@
       <c r="K6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -864,10 +815,74 @@
       <c r="K7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M7">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K9">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -891,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +916,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -917,12 +932,12 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>7.9130000000000003</v>
@@ -930,17 +945,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>7.1790000000000003</v>
+        <v>4.4889999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>3.665</v>
       </c>
     </row>
